--- a/biology/Zoologie/Géopélie_à_nuque_rousse/Géopélie_à_nuque_rousse.xlsx
+++ b/biology/Zoologie/Géopélie_à_nuque_rousse/Géopélie_à_nuque_rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9op%C3%A9lie_%C3%A0_nuque_rousse</t>
+          <t>Géopélie_à_nuque_rousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geopelia humeralis
 La Géopélie à nuque rousse (Geopelia humeralis) est une espèce de pigeons de la famille des Columbidae
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9op%C3%A9lie_%C3%A0_nuque_rousse</t>
+          <t>Géopélie_à_nuque_rousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 26 à 31 cm pour une masse de 110 à 140 g.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9op%C3%A9lie_%C3%A0_nuque_rousse</t>
+          <t>Géopélie_à_nuque_rousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est originaire d’Indonésie, de Nouvelle-Guinée et d’Australie.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9op%C3%A9lie_%C3%A0_nuque_rousse</t>
+          <t>Géopélie_à_nuque_rousse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Parasites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une géopélie à nuque rousse a été trouvée infectée par Toxoplasma gondii, l'agent de la toxoplasmose, au Parc zoologique de Clères en France[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une géopélie à nuque rousse a été trouvée infectée par Toxoplasma gondii, l'agent de la toxoplasmose, au Parc zoologique de Clères en France.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9op%C3%A9lie_%C3%A0_nuque_rousse</t>
+          <t>Géopélie_à_nuque_rousse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon Peterson
 Geopelia humeralis gregalis Bangs &amp; Peters,JL 1926
